--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Actual\Simulacion\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Actual\Simulacion\Proyecto\ML_ParkinsonDisease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4915B0-DF72-4D19-8B62-47162623B20F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE66AC8A-33EA-4A05-8443-7402A6095783}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLR" sheetId="1" r:id="rId1"/>
     <sheet name="PW" sheetId="2" r:id="rId2"/>
     <sheet name="ANN" sheetId="3" r:id="rId3"/>
     <sheet name="RF" sheetId="4" r:id="rId4"/>
+    <sheet name="SVR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="307">
   <si>
     <t>poly_degree</t>
   </si>
@@ -751,13 +752,211 @@
   </si>
   <si>
     <t>{'layers': (32, 32, 32), 'max_iter: 1500</t>
+  </si>
+  <si>
+    <t>{'C': 0.01, 'gamma': 0.01, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.583880</t>
+  </si>
+  <si>
+    <t>-0.191601</t>
+  </si>
+  <si>
+    <t>0.233549</t>
+  </si>
+  <si>
+    <t>0.774820</t>
+  </si>
+  <si>
+    <t>{'C': 0.01, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.739670</t>
+  </si>
+  <si>
+    <t>-0.153300</t>
+  </si>
+  <si>
+    <t>0.215761</t>
+  </si>
+  <si>
+    <t>0.782439</t>
+  </si>
+  <si>
+    <t>{'C': 0.01, 'gamma': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.01, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.682692</t>
+  </si>
+  <si>
+    <t>-0.156301</t>
+  </si>
+  <si>
+    <t>0.203188</t>
+  </si>
+  <si>
+    <t>0.745043</t>
+  </si>
+  <si>
+    <t>{'C': 0.01, 'gamma': 1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'C': 0.01, 'gamma': 1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.718521</t>
+  </si>
+  <si>
+    <t>-0.152179</t>
+  </si>
+  <si>
+    <t>0.205011</t>
+  </si>
+  <si>
+    <t>0.755263</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.01, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.467114</t>
+  </si>
+  <si>
+    <t>-0.354864</t>
+  </si>
+  <si>
+    <t>0.253703</t>
+  </si>
+  <si>
+    <t>0.705711</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.528497</t>
+  </si>
+  <si>
+    <t>-0.233535</t>
+  </si>
+  <si>
+    <t>0.221235</t>
+  </si>
+  <si>
+    <t>0.683757</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.452823</t>
+  </si>
+  <si>
+    <t>-0.300730</t>
+  </si>
+  <si>
+    <t>0.207265</t>
+  </si>
+  <si>
+    <t>0.535530</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.395171</t>
+  </si>
+  <si>
+    <t>-0.268098</t>
+  </si>
+  <si>
+    <t>0.149544</t>
+  </si>
+  <si>
+    <t>0.478966</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'gamma': 0.01, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.477672</t>
+  </si>
+  <si>
+    <t>-0.372139</t>
+  </si>
+  <si>
+    <t>0.269904</t>
+  </si>
+  <si>
+    <t>0.753411</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'gamma': 0.01, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.449773</t>
+  </si>
+  <si>
+    <t>-0.306550</t>
+  </si>
+  <si>
+    <t>0.210868</t>
+  </si>
+  <si>
+    <t>0.535574</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'gamma': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.522118</t>
+  </si>
+  <si>
+    <t>-0.414063</t>
+  </si>
+  <si>
+    <t>0.236925</t>
+  </si>
+  <si>
+    <t>0.570345</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'gamma': 1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>{'C': 10, 'gamma': 1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.398313</t>
+  </si>
+  <si>
+    <t>-0.402948</t>
+  </si>
+  <si>
+    <t>0.188868</t>
+  </si>
+  <si>
+    <t>0.469253</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -778,6 +977,19 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -815,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -840,6 +1052,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4902,7 +5126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6169,4 +6393,466 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D989DE4B-1122-4AED-B99F-6AB130C9511A}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="6.125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="7.875" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="10">
+        <v>7223</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F2" s="10">
+        <v>8570</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="B3" s="10">
+        <v>7168</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F3" s="10">
+        <v>8441</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="10">
+        <v>7223</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="10">
+        <v>8570</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="10">
+        <v>7201</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="10">
+        <v>8456</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7223</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="10">
+        <v>8570</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="10">
+        <v>7160</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F7" s="10">
+        <v>8440</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="10">
+        <v>7487</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="10">
+        <v>9123</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7327</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" s="10">
+        <v>8718</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="10">
+        <v>7487</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9123</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="10">
+        <v>7455</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8953</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12" s="10">
+        <v>7487</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="10">
+        <v>9123</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7403</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="10">
+        <v>8862</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="10">
+        <v>7501</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="10">
+        <v>9177</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7460</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F15" s="10">
+        <v>8968</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="10">
+        <v>7501</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F16" s="10">
+        <v>9177</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="10">
+        <v>7747</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="10">
+        <v>9330</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="10">
+        <v>7501</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F18" s="10">
+        <v>9177</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="10">
+        <v>7652</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="10">
+        <v>9310</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -1,744 +1,747 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Actual\Simulacion\Proyecto\ML_ParkinsonDisease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD606DC7-6026-4EA4-8DEA-52658EC65D25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE177B-8988-43FB-9801-DF89F38F16E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLR" sheetId="1" r:id="rId1"/>
     <sheet name="PW" sheetId="2" r:id="rId2"/>
-    <sheet name="ANN" sheetId="6" r:id="rId3"/>
-    <sheet name="RF" sheetId="7" r:id="rId4"/>
-    <sheet name="SVR" sheetId="8" r:id="rId5"/>
+    <sheet name="ANN" sheetId="3" r:id="rId3"/>
+    <sheet name="RF" sheetId="4" r:id="rId4"/>
+    <sheet name="SVR" sheetId="5" r:id="rId5"/>
+    <sheet name="Sel_PW" sheetId="6" r:id="rId6"/>
+    <sheet name="Sel_SVR" sheetId="7" r:id="rId7"/>
+    <sheet name="Sel_MLPR" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mioI/ZEdDigo5O3xNzFz2EDSpC/EQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhtPjinVRHNAp88apkYp7E0C7qzdg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="349">
   <si>
     <t>params</t>
   </si>
   <si>
+    <t>mean_test_mae</t>
+  </si>
+  <si>
+    <t>std_test_mae</t>
+  </si>
+  <si>
+    <t>mean_test_mape</t>
+  </si>
+  <si>
+    <t>std_test_mape</t>
+  </si>
+  <si>
+    <t>mean_test_rmse</t>
+  </si>
+  <si>
+    <t>std_test_rmse</t>
+  </si>
+  <si>
+    <t>{'degree': 1}</t>
+  </si>
+  <si>
     <t>MAE</t>
   </si>
   <si>
-    <t>mean_test_mae</t>
-  </si>
-  <si>
-    <t>std_test_mae</t>
-  </si>
-  <si>
-    <t>mean_test_rmse</t>
-  </si>
-  <si>
-    <t>std_test_rmse</t>
+    <t>0.258</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': 8, 'max_iter': 1000}</t>
+  </si>
+  <si>
+    <t>0.424</t>
+  </si>
+  <si>
+    <t>0.080</t>
+  </si>
+  <si>
+    <t>0.557048</t>
+  </si>
+  <si>
+    <t>0.448084</t>
+  </si>
+  <si>
+    <t>0.095644</t>
+  </si>
+  <si>
+    <t>0.627202</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': 8, 'max_iter': 1500}</t>
+  </si>
+  <si>
+    <t>0.571398</t>
+  </si>
+  <si>
+    <t>0.450647</t>
+  </si>
+  <si>
+    <t>0.099410</t>
+  </si>
+  <si>
+    <t>0.617105</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': 16, 'max_iter': 1000}</t>
+  </si>
+  <si>
+    <t>0.532208</t>
+  </si>
+  <si>
+    <t>0.453039</t>
+  </si>
+  <si>
+    <t>0.099645</t>
+  </si>
+  <si>
+    <t>0.582912</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': 16, 'max_iter': 1500}</t>
+  </si>
+  <si>
+    <t>0.466114</t>
+  </si>
+  <si>
+    <t>0.458128</t>
+  </si>
+  <si>
+    <t>0.098914</t>
+  </si>
+  <si>
+    <t>0.503035</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': 40, 'max_iter': 1000}</t>
+  </si>
+  <si>
+    <t>0.513800</t>
+  </si>
+  <si>
+    <t>0.464910</t>
+  </si>
+  <si>
+    <t>0.100005</t>
+  </si>
+  <si>
+    <t>0.609392</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': 40, 'max_iter': 1500}</t>
+  </si>
+  <si>
+    <t>0.519743</t>
+  </si>
+  <si>
+    <t>0.461990</t>
+  </si>
+  <si>
+    <t>0.093813</t>
+  </si>
+  <si>
+    <t>0.601719</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (8, 8), 'max_iter': 1000}</t>
+  </si>
+  <si>
+    <t>0.457339</t>
+  </si>
+  <si>
+    <t>0.455148</t>
+  </si>
+  <si>
+    <t>0.095945</t>
+  </si>
+  <si>
+    <t>0.441799</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (8, 8), 'max_iter': 1500}</t>
   </si>
   <si>
     <t>std_MAE</t>
   </si>
   <si>
+    <t>0.503253</t>
+  </si>
+  <si>
+    <t>0.468960</t>
+  </si>
+  <si>
+    <t>0.101116</t>
+  </si>
+  <si>
+    <t>0.556203</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (16, 16), 'max_iter': 1000</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>0.502662</t>
+  </si>
+  <si>
+    <t>0.476627</t>
+  </si>
+  <si>
+    <t>0.098279</t>
+  </si>
+  <si>
+    <t>0.524561</t>
+  </si>
+  <si>
+    <t>std_MAPE</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (16, 16), 'max_iter': 1500</t>
+  </si>
+  <si>
+    <t>0.511142</t>
+  </si>
+  <si>
+    <t>0.473273</t>
+  </si>
+  <si>
+    <t>0.095218</t>
+  </si>
+  <si>
+    <t>0.583598</t>
+  </si>
+  <si>
     <t>Ancho del kernel</t>
   </si>
   <si>
+    <t>{'hidden_layer_sizes': (40, 40), 'max_iter': 1000</t>
+  </si>
+  <si>
+    <t>0.535117</t>
+  </si>
+  <si>
+    <t>0.475539</t>
+  </si>
+  <si>
+    <t>0.099968</t>
+  </si>
+  <si>
+    <t>0.594247</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (40, 40), 'max_iter': 1500</t>
+  </si>
+  <si>
+    <t>0.542926</t>
+  </si>
+  <si>
+    <t>0.482316</t>
+  </si>
+  <si>
+    <t>0.093952</t>
+  </si>
+  <si>
+    <t>0.4485</t>
+  </si>
+  <si>
+    <t>0.610761</t>
+  </si>
+  <si>
     <t>0.5</t>
   </si>
   <si>
+    <t>{'hidden_layer_sizes': (8, 8, 8), 'max_iter': 1000</t>
+  </si>
+  <si>
+    <t>0.516494</t>
+  </si>
+  <si>
+    <t>0.462476</t>
+  </si>
+  <si>
+    <t>0.099287</t>
+  </si>
+  <si>
+    <t>0.563871</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (8, 8, 8), 'max_iter': 1500</t>
+  </si>
+  <si>
+    <t>0.568115</t>
+  </si>
+  <si>
+    <t>0.458611</t>
+  </si>
+  <si>
+    <t>0.101903</t>
+  </si>
+  <si>
+    <t>0.597111</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (16, 16, 16), 'max_iter: 1000</t>
+  </si>
+  <si>
+    <t>{'degree': 2}</t>
+  </si>
+  <si>
+    <t>0.508514</t>
+  </si>
+  <si>
+    <t>0.471980</t>
+  </si>
+  <si>
+    <t>0.099158</t>
+  </si>
+  <si>
+    <t>0.514696</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (16, 16, 16), 'max_iter: 1500</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.601432</t>
+  </si>
+  <si>
+    <t>0.479815</t>
+  </si>
+  <si>
+    <t>0.105475</t>
+  </si>
+  <si>
+    <t>0.635736</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (40, 40, 40), 'max_iter: 1000</t>
+  </si>
+  <si>
+    <t>0.552332</t>
+  </si>
+  <si>
+    <t>0.492953</t>
+  </si>
+  <si>
+    <t>0.098952</t>
+  </si>
+  <si>
+    <t>0.586546</t>
+  </si>
+  <si>
+    <t>{'hidden_layer_sizes': (40, 40, 40), 'max_iter: 1500</t>
+  </si>
+  <si>
+    <t>0.441438</t>
+  </si>
+  <si>
+    <t>0.490709</t>
+  </si>
+  <si>
+    <t>0.090939</t>
+  </si>
+  <si>
+    <t>0.421211</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>{'degree': 3}</t>
+  </si>
+  <si>
+    <t>8.42e+02</t>
+  </si>
+  <si>
+    <t>{'degree': 4}</t>
+  </si>
+  <si>
     <t>96705.6</t>
   </si>
   <si>
     <t>112886.2</t>
   </si>
   <si>
+    <t>5125.89</t>
+  </si>
+  <si>
+    <t>0.431</t>
+  </si>
+  <si>
+    <t>4922.5</t>
+  </si>
+  <si>
+    <t>1.35e+06</t>
+  </si>
+  <si>
+    <t>0.046</t>
+  </si>
+  <si>
+    <t>0.912</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.055</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>0.090</t>
+  </si>
+  <si>
+    <t>0.598</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
     <t>{'max_features': 5, 'n_estimators': 5}</t>
   </si>
   <si>
     <t>0.342465</t>
   </si>
   <si>
+    <t>0.458462</t>
+  </si>
+  <si>
+    <t>0.083408</t>
+  </si>
+  <si>
     <t>{'max_features': 5, 'n_estimators': 10}</t>
   </si>
   <si>
     <t>0.367710</t>
   </si>
   <si>
+    <t>0.450929</t>
+  </si>
+  <si>
+    <t>0.086070</t>
+  </si>
+  <si>
     <t>{'max_features': 5, 'n_estimators': 20}</t>
   </si>
   <si>
     <t>0.367118</t>
   </si>
   <si>
+    <t>0.443255</t>
+  </si>
+  <si>
+    <t>0.080878</t>
+  </si>
+  <si>
     <t>{'max_features': 5, 'n_estimators': 50}</t>
   </si>
   <si>
     <t>0.330162</t>
   </si>
   <si>
+    <t>0.438989</t>
+  </si>
+  <si>
+    <t>0.084031</t>
+  </si>
+  <si>
     <t>{'max_features': 5, 'n_estimators': 100}</t>
   </si>
   <si>
     <t>0.334875</t>
   </si>
   <si>
+    <t>0.439408</t>
+  </si>
+  <si>
+    <t>0.084469</t>
+  </si>
+  <si>
     <t>{'max_features': 10, 'n_estimators': 5}</t>
   </si>
   <si>
     <t>0.303777</t>
   </si>
   <si>
+    <t>0.465035</t>
+  </si>
+  <si>
+    <t>0.090379</t>
+  </si>
+  <si>
     <t>{'max_features': 10, 'n_estimators': 10}</t>
   </si>
   <si>
+    <t>{'C': 1000.0, 'gamma': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
     <t>0.313510</t>
   </si>
   <si>
+    <t>0.455357</t>
+  </si>
+  <si>
+    <t>0.086818</t>
+  </si>
+  <si>
     <t>{'max_features': 10, 'n_estimators': 20}</t>
   </si>
   <si>
     <t>0.329436</t>
   </si>
   <si>
+    <t>0.446287</t>
+  </si>
+  <si>
+    <t>0.085697</t>
+  </si>
+  <si>
     <t>{'max_features': 10, 'n_estimators': 50}</t>
   </si>
   <si>
+    <t>0.481315</t>
+  </si>
+  <si>
+    <t>0.420720</t>
+  </si>
+  <si>
+    <t>0.066425</t>
+  </si>
+  <si>
+    <t>0.758817</t>
+  </si>
+  <si>
+    <t>{'C': 1000.0, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.490063</t>
+  </si>
+  <si>
+    <t>0.493630</t>
+  </si>
+  <si>
+    <t>0.084244</t>
+  </si>
+  <si>
+    <t>0.598886</t>
+  </si>
+  <si>
+    <t>{'C': 1000.0, 'gamma': 1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
     <t>0.360195</t>
   </si>
   <si>
+    <t>0.444222</t>
+  </si>
+  <si>
+    <t>0.087167</t>
+  </si>
+  <si>
+    <t>{'C': 1000.0, 'gamma': 1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
     <t>{'max_features': 10, 'n_estimators': 100}</t>
   </si>
   <si>
+    <t>0.431197</t>
+  </si>
+  <si>
+    <t>0.532304</t>
+  </si>
+  <si>
+    <t>0.094813</t>
+  </si>
+  <si>
     <t>0.351831</t>
   </si>
   <si>
+    <t>0.566569</t>
+  </si>
+  <si>
+    <t>0.444205</t>
+  </si>
+  <si>
+    <t>0.086081</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.467114</t>
+  </si>
+  <si>
     <t>{'max_features': 16, 'n_estimators': 5}</t>
   </si>
   <si>
+    <t>0.420068</t>
+  </si>
+  <si>
+    <t>0.067237</t>
+  </si>
+  <si>
+    <t>0.705711</t>
+  </si>
+  <si>
     <t>0.395679</t>
   </si>
   <si>
+    <t>0.462756</t>
+  </si>
+  <si>
+    <t>{'C': 1, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.090221</t>
+  </si>
+  <si>
+    <t>0.452823</t>
+  </si>
+  <si>
+    <t>0.431873</t>
+  </si>
+  <si>
     <t>{'max_features': 16, 'n_estimators': 10}</t>
   </si>
   <si>
+    <t>0.080684</t>
+  </si>
+  <si>
+    <t>0.535530</t>
+  </si>
+  <si>
     <t>0.360495</t>
   </si>
   <si>
+    <t>{'C': 1, 'gamma': 1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
+    <t>0.452266</t>
+  </si>
+  <si>
+    <t>0.085135</t>
+  </si>
+  <si>
     <t>{'max_features': 16, 'n_estimators': 20}</t>
   </si>
   <si>
+    <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
     <t>0.393079</t>
   </si>
   <si>
+    <t>0.395171</t>
+  </si>
+  <si>
+    <t>0.440545</t>
+  </si>
+  <si>
+    <t>0.080930</t>
+  </si>
+  <si>
+    <t>0.451953</t>
+  </si>
+  <si>
+    <t>0.478966</t>
+  </si>
+  <si>
+    <t>0.086875</t>
+  </si>
+  <si>
+    <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'linear'}</t>
+  </si>
+  <si>
     <t>{'max_features': 16, 'n_estimators': 50}</t>
   </si>
   <si>
+    <t>0.709951</t>
+  </si>
+  <si>
+    <t>0.412801</t>
+  </si>
+  <si>
+    <t>0.077033</t>
+  </si>
+  <si>
     <t>0.378086</t>
   </si>
   <si>
+    <t>0.809190</t>
+  </si>
+  <si>
+    <t>0.446382</t>
+  </si>
+  <si>
+    <t>0.086330</t>
+  </si>
+  <si>
+    <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
+  </si>
+  <si>
+    <t>0.740053</t>
+  </si>
+  <si>
     <t>{'max_features': 16, 'n_estimators': 100}</t>
   </si>
   <si>
+    <t>0.423226</t>
+  </si>
+  <si>
+    <t>0.086255</t>
+  </si>
+  <si>
+    <t>0.777221</t>
+  </si>
+  <si>
     <t>0.370984</t>
   </si>
   <si>
-    <t>0.467114</t>
-  </si>
-  <si>
-    <t>0.705711</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'gamma': 0.1, 'kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'gamma': 0.1, 'kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>0.452823</t>
-  </si>
-  <si>
-    <t>0.535530</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'gamma': 1, 'kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>{'C': 1, 'gamma': 1, 'kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>0.395171</t>
-  </si>
-  <si>
-    <t>0.478966</t>
-  </si>
-  <si>
-    <t>mean_test_mape</t>
-  </si>
-  <si>
-    <t>std_test_mape</t>
-  </si>
-  <si>
-    <t>0.258</t>
-  </si>
-  <si>
-    <t>{'degree': 1}</t>
-  </si>
-  <si>
-    <t>{'degree': 2}</t>
-  </si>
-  <si>
-    <t>{'degree': 3}</t>
-  </si>
-  <si>
-    <t>{'degree': 4}</t>
-  </si>
-  <si>
-    <t>0.424</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>5125.89</t>
-  </si>
-  <si>
-    <t>0.080</t>
-  </si>
-  <si>
-    <t>0.104</t>
-  </si>
-  <si>
-    <t>4922.5</t>
-  </si>
-  <si>
-    <t>0.4485</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>8.42e+02</t>
-  </si>
-  <si>
-    <t>1.35e+06</t>
-  </si>
-  <si>
-    <t>0.678</t>
-  </si>
-  <si>
-    <t>0.912</t>
-  </si>
-  <si>
-    <t>0.617</t>
-  </si>
-  <si>
-    <t>0.598</t>
-  </si>
-  <si>
-    <t>MAPE</t>
-  </si>
-  <si>
-    <t>std_MAPE</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>0.425</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.046</t>
-  </si>
-  <si>
-    <t>0.055</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.090</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': 8, 'max_iter': 1000}</t>
-  </si>
-  <si>
-    <t>0.557048</t>
-  </si>
-  <si>
-    <t>0.448084</t>
-  </si>
-  <si>
-    <t>0.095644</t>
-  </si>
-  <si>
-    <t>0.627202</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': 8, 'max_iter': 1500}</t>
-  </si>
-  <si>
-    <t>0.571398</t>
-  </si>
-  <si>
-    <t>0.450647</t>
-  </si>
-  <si>
-    <t>0.099410</t>
-  </si>
-  <si>
-    <t>0.617105</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': 16, 'max_iter': 1000}</t>
-  </si>
-  <si>
-    <t>0.532208</t>
-  </si>
-  <si>
-    <t>0.453039</t>
-  </si>
-  <si>
-    <t>0.099645</t>
-  </si>
-  <si>
-    <t>0.582912</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': 16, 'max_iter': 1500}</t>
-  </si>
-  <si>
-    <t>0.466114</t>
-  </si>
-  <si>
-    <t>0.458128</t>
-  </si>
-  <si>
-    <t>0.098914</t>
-  </si>
-  <si>
-    <t>0.503035</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': 40, 'max_iter': 1000}</t>
-  </si>
-  <si>
-    <t>0.513800</t>
-  </si>
-  <si>
-    <t>0.464910</t>
-  </si>
-  <si>
-    <t>0.100005</t>
-  </si>
-  <si>
-    <t>0.609392</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': 40, 'max_iter': 1500}</t>
-  </si>
-  <si>
-    <t>0.519743</t>
-  </si>
-  <si>
-    <t>0.461990</t>
-  </si>
-  <si>
-    <t>0.093813</t>
-  </si>
-  <si>
-    <t>0.601719</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (8, 8), 'max_iter': 1000}</t>
-  </si>
-  <si>
-    <t>0.457339</t>
-  </si>
-  <si>
-    <t>0.455148</t>
-  </si>
-  <si>
-    <t>0.095945</t>
-  </si>
-  <si>
-    <t>0.441799</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (8, 8), 'max_iter': 1500}</t>
-  </si>
-  <si>
-    <t>0.503253</t>
-  </si>
-  <si>
-    <t>0.468960</t>
-  </si>
-  <si>
-    <t>0.101116</t>
-  </si>
-  <si>
-    <t>0.556203</t>
-  </si>
-  <si>
-    <t>0.502662</t>
-  </si>
-  <si>
-    <t>0.476627</t>
-  </si>
-  <si>
-    <t>0.098279</t>
-  </si>
-  <si>
-    <t>0.524561</t>
-  </si>
-  <si>
-    <t>0.511142</t>
-  </si>
-  <si>
-    <t>0.473273</t>
-  </si>
-  <si>
-    <t>0.095218</t>
-  </si>
-  <si>
-    <t>0.583598</t>
-  </si>
-  <si>
-    <t>0.535117</t>
-  </si>
-  <si>
-    <t>0.475539</t>
-  </si>
-  <si>
-    <t>0.099968</t>
-  </si>
-  <si>
-    <t>0.594247</t>
-  </si>
-  <si>
-    <t>0.542926</t>
-  </si>
-  <si>
-    <t>0.482316</t>
-  </si>
-  <si>
-    <t>0.093952</t>
-  </si>
-  <si>
-    <t>0.610761</t>
-  </si>
-  <si>
-    <t>0.516494</t>
-  </si>
-  <si>
-    <t>0.462476</t>
-  </si>
-  <si>
-    <t>0.099287</t>
-  </si>
-  <si>
-    <t>0.563871</t>
-  </si>
-  <si>
-    <t>0.568115</t>
-  </si>
-  <si>
-    <t>0.458611</t>
-  </si>
-  <si>
-    <t>0.101903</t>
-  </si>
-  <si>
-    <t>0.597111</t>
-  </si>
-  <si>
-    <t>0.508514</t>
-  </si>
-  <si>
-    <t>0.471980</t>
-  </si>
-  <si>
-    <t>0.099158</t>
-  </si>
-  <si>
-    <t>0.514696</t>
-  </si>
-  <si>
-    <t>0.601432</t>
-  </si>
-  <si>
-    <t>0.479815</t>
-  </si>
-  <si>
-    <t>0.105475</t>
-  </si>
-  <si>
-    <t>0.635736</t>
-  </si>
-  <si>
-    <t>0.552332</t>
-  </si>
-  <si>
-    <t>0.492953</t>
-  </si>
-  <si>
-    <t>0.098952</t>
-  </si>
-  <si>
-    <t>0.586546</t>
-  </si>
-  <si>
-    <t>0.441438</t>
-  </si>
-  <si>
-    <t>0.490709</t>
-  </si>
-  <si>
-    <t>0.090939</t>
-  </si>
-  <si>
-    <t>0.421211</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (16, 16), 'max_iter': 1000</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (16, 16), 'max_iter': 1500</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (40, 40), 'max_iter': 1000</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (40, 40), 'max_iter': 1500</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (8, 8, 8), 'max_iter': 1000</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (8, 8, 8), 'max_iter': 1500</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (16, 16, 16), 'max_iter: 1000</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (16, 16, 16), 'max_iter: 1500</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (40, 40, 40), 'max_iter: 1000</t>
-  </si>
-  <si>
-    <t>{'hidden_layer_sizes': (40, 40, 40), 'max_iter: 1500</t>
-  </si>
-  <si>
-    <t>0.458462</t>
-  </si>
-  <si>
-    <t>0.083408</t>
-  </si>
-  <si>
-    <t>0.450929</t>
-  </si>
-  <si>
-    <t>0.086070</t>
-  </si>
-  <si>
-    <t>0.443255</t>
-  </si>
-  <si>
-    <t>0.080878</t>
-  </si>
-  <si>
-    <t>0.438989</t>
-  </si>
-  <si>
-    <t>0.084031</t>
-  </si>
-  <si>
-    <t>0.439408</t>
-  </si>
-  <si>
-    <t>0.084469</t>
-  </si>
-  <si>
-    <t>0.465035</t>
-  </si>
-  <si>
-    <t>0.090379</t>
-  </si>
-  <si>
-    <t>0.455357</t>
-  </si>
-  <si>
-    <t>0.086818</t>
-  </si>
-  <si>
-    <t>0.446287</t>
-  </si>
-  <si>
-    <t>0.085697</t>
-  </si>
-  <si>
-    <t>0.444222</t>
-  </si>
-  <si>
-    <t>0.087167</t>
-  </si>
-  <si>
-    <t>0.444205</t>
-  </si>
-  <si>
-    <t>0.086081</t>
-  </si>
-  <si>
-    <t>0.462756</t>
-  </si>
-  <si>
-    <t>0.090221</t>
-  </si>
-  <si>
-    <t>0.452266</t>
-  </si>
-  <si>
-    <t>0.085135</t>
-  </si>
-  <si>
-    <t>0.451953</t>
-  </si>
-  <si>
-    <t>0.086875</t>
-  </si>
-  <si>
-    <t>0.446382</t>
-  </si>
-  <si>
-    <t>0.086330</t>
-  </si>
-  <si>
     <t>0.446006</t>
   </si>
   <si>
     <t>0.086652</t>
   </si>
   <si>
-    <t>{'C': 1000.0, 'gamma': 0.1, 'kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>0.481315</t>
-  </si>
-  <si>
-    <t>0.420720</t>
-  </si>
-  <si>
-    <t>0.066425</t>
-  </si>
-  <si>
-    <t>0.758817</t>
-  </si>
-  <si>
-    <t>{'C': 1000.0, 'gamma': 0.1, 'kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>0.490063</t>
-  </si>
-  <si>
-    <t>0.493630</t>
-  </si>
-  <si>
-    <t>0.084244</t>
-  </si>
-  <si>
-    <t>0.598886</t>
-  </si>
-  <si>
-    <t>{'C': 1000.0, 'gamma': 1, 'kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>{'C': 1000.0, 'gamma': 1, 'kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>0.431197</t>
-  </si>
-  <si>
-    <t>0.532304</t>
-  </si>
-  <si>
-    <t>0.094813</t>
-  </si>
-  <si>
-    <t>0.566569</t>
-  </si>
-  <si>
-    <t>0.420068</t>
-  </si>
-  <si>
-    <t>0.067237</t>
-  </si>
-  <si>
-    <t>0.431873</t>
-  </si>
-  <si>
-    <t>0.080684</t>
-  </si>
-  <si>
-    <t>0.440545</t>
-  </si>
-  <si>
-    <t>0.080930</t>
-  </si>
-  <si>
-    <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'linear'}</t>
-  </si>
-  <si>
-    <t>0.709951</t>
-  </si>
-  <si>
-    <t>0.412801</t>
-  </si>
-  <si>
-    <t>0.077033</t>
-  </si>
-  <si>
-    <t>0.809190</t>
-  </si>
-  <si>
-    <t>{'C': 0.001, 'gamma': 0.1, 'kernel': 'rbf'}</t>
-  </si>
-  <si>
-    <t>0.740053</t>
-  </si>
-  <si>
-    <t>0.423226</t>
-  </si>
-  <si>
-    <t>0.086255</t>
-  </si>
-  <si>
-    <t>0.777221</t>
-  </si>
-  <si>
     <t>{'C': 0.001, 'gamma': 1, 'kernel': 'linear'}</t>
   </si>
   <si>
@@ -803,17 +806,295 @@
   </si>
   <si>
     <t>0.783253</t>
+  </si>
+  <si>
+    <t>feature_idx</t>
+  </si>
+  <si>
+    <t>std_dev</t>
+  </si>
+  <si>
+    <t>0.4516</t>
+  </si>
+  <si>
+    <t>(7, 10)</t>
+  </si>
+  <si>
+    <t>0.45341</t>
+  </si>
+  <si>
+    <t>(7, 8, 10)</t>
+  </si>
+  <si>
+    <t>0.574067</t>
+  </si>
+  <si>
+    <t>(4, 7, 8, 10)</t>
+  </si>
+  <si>
+    <t>0.601296</t>
+  </si>
+  <si>
+    <t>(2, 4, 7, 8, 10)</t>
+  </si>
+  <si>
+    <t>0.605058</t>
+  </si>
+  <si>
+    <t>(2, 3, 4, 7, 8, 10)</t>
+  </si>
+  <si>
+    <t>0.60792</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 4, 7, 8, 10)</t>
+  </si>
+  <si>
+    <t>0.603792</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 7, 8, 10)</t>
+  </si>
+  <si>
+    <t>0.606976</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 7, 8, 10, 11)</t>
+  </si>
+  <si>
+    <t>0.6075</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 7, 8, 10, 11)</t>
+  </si>
+  <si>
+    <t>0.60593</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 10, 11)</t>
+  </si>
+  <si>
+    <t>0.605004</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11)</t>
+  </si>
+  <si>
+    <t>0.605719</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12)</t>
+  </si>
+  <si>
+    <t>0.595254</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13)</t>
+  </si>
+  <si>
+    <t>0.591656</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13,...</t>
+  </si>
+  <si>
+    <t>0.598946</t>
+  </si>
+  <si>
+    <t>0.563214</t>
+  </si>
+  <si>
+    <t>avg_score (MAE)</t>
+  </si>
+  <si>
+    <t>0.674606</t>
+  </si>
+  <si>
+    <t>(1, 14)</t>
+  </si>
+  <si>
+    <t>0.69049</t>
+  </si>
+  <si>
+    <t>(1, 4, 14)</t>
+  </si>
+  <si>
+    <t>0.695393</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 14)</t>
+  </si>
+  <si>
+    <t>0.699874</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 4, 14)</t>
+  </si>
+  <si>
+    <t>0.705911</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 4, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.703584</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 4, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.698643</t>
+  </si>
+  <si>
+    <t>(1, 2, 3, 4, 7, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.696788</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 7, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.698433</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 7, 8, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.694135</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 7, 8, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.694253</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 7, 8, 10, 11, 13, 14)</t>
+  </si>
+  <si>
+    <t>0.70222</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 10, 11, 13, 14)</t>
+  </si>
+  <si>
+    <t>0.699169</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 10, 11, 12, 13, 14)</t>
+  </si>
+  <si>
+    <t>0.699621</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 5, 6, 7, 8, 10, 11, 12, 13, 14...</t>
+  </si>
+  <si>
+    <t>0.71058</t>
+  </si>
+  <si>
+    <t>0.454989</t>
+  </si>
+  <si>
+    <t>(10, 14)</t>
+  </si>
+  <si>
+    <t>0.340495</t>
+  </si>
+  <si>
+    <t>(4, 10, 14)</t>
+  </si>
+  <si>
+    <t>0.36626</t>
+  </si>
+  <si>
+    <t>(4, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.320988</t>
+  </si>
+  <si>
+    <t>(1, 4, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.371331</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 10, 11, 14)</t>
+  </si>
+  <si>
+    <t>0.352208</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 10, 11, 13, 14)</t>
+  </si>
+  <si>
+    <t>0.479677</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 10, 11, 12, 13, 14)</t>
+  </si>
+  <si>
+    <t>0.478337</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 10, 11, 12, 13, 14, 15)</t>
+  </si>
+  <si>
+    <t>0.419925</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 7, 10, 11, 12, 13, 14, 15)</t>
+  </si>
+  <si>
+    <t>0.418561</t>
+  </si>
+  <si>
+    <t>(1, 2, 4, 7, 8, 10, 11, 12, 13, 14, 15)</t>
+  </si>
+  <si>
+    <t>0.439545</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 4, 7, 8, 10, 11, 12, 13, 14, 15)</t>
+  </si>
+  <si>
+    <t>0.542257</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 4, 6, 7, 8, 10, 11, 12, 13, 14, 15)</t>
+  </si>
+  <si>
+    <t>0.517568</t>
+  </si>
+  <si>
+    <t>(0, 1, 2, 3, 4, 6, 7, 8, 10, 11, 12, 13, 14, 15)</t>
+  </si>
+  <si>
+    <t>0.480189</t>
+  </si>
+  <si>
+    <t>0.549089</t>
+  </si>
+  <si>
+    <t>0.556207</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="10"/>
@@ -827,6 +1108,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
       <color theme="1"/>
@@ -834,7 +1121,14 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -860,62 +1154,118 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1134,9 +1484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1151,134 +1499,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5">
         <v>7113</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12">
         <v>8577</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="G2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="5">
         <v>8240</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="5">
         <v>1386</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="16">
+      <c r="D3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="14">
         <v>12.9</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="G3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5">
         <v>42478</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="5">
         <v>51502</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="5">
         <v>1875</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="5">
         <v>1945</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>551</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>10</v>
+      <c r="G4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="16">
+        <v>119</v>
+      </c>
+      <c r="F5" s="14">
         <v>1700000</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2262,7 +2610,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2270,9 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2284,112 +2630,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="15">
+        <v>10183</v>
+      </c>
+      <c r="C3" s="16">
+        <v>1581</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7">
-        <v>10183</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1581</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="B4" s="16">
         <v>7461</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>80</v>
+      <c r="C4" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="13">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>7045</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>81</v>
+      <c r="C5" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="16">
         <v>6993</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>82</v>
+      <c r="C6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="13">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>6981</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>83</v>
+      <c r="C7" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3379,14 +3725,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAAF17D8-6084-4DF5-927B-5C437A40133C}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="7.75" customWidth="1"/>
@@ -3394,1156 +3738,4937 @@
     <col min="4" max="4" width="7.5" customWidth="1"/>
     <col min="5" max="6" width="6.75" customWidth="1"/>
     <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="26" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="9">
+        <v>7610</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="9">
+        <v>9190</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="9">
+        <v>7636</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="9">
+        <v>9227</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7698</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9314</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9">
+        <v>7803</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9433</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7922</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9577</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7915</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9582</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7756</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9432</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7963</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F9" s="9">
+        <v>9650</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="18" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9">
+        <v>8112</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9824</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="9">
+        <v>8111</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="9">
+        <v>9861</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="9">
+        <v>8203</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="9">
+        <v>9987</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="9">
+        <v>8320</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="9">
+        <v>10176</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="9">
+        <v>7858</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" s="9">
+        <v>9524</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="9">
+        <v>7781</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="9">
+        <v>9478</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="9">
+        <v>8055</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="9">
+        <v>9836</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="9">
+        <v>8220</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="9">
+        <v>10012</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="9">
+        <v>8468</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10421</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="9">
+        <v>8426</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="9">
+        <v>10405</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="26" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7736</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7567</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7403</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7324</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="5">
+        <v>7320</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7809</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7631</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7465</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" s="5">
+        <v>7410</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7413</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="5">
+        <v>7804</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7607</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="5">
+        <v>7561</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7466</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7453</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="6.75" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="7" max="26" width="8.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="12">
-        <v>7610</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F2" s="12">
-        <v>9190</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="12">
-        <v>7636</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="12">
-        <v>9227</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="12">
-        <v>7698</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="12">
-        <v>9314</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="12">
-        <v>7803</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F5" s="12">
-        <v>9433</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="12">
-        <v>7922</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="12">
-        <v>9577</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="9">
+        <v>7500</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="9">
+        <v>9180</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="9">
+        <v>8488</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10322</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="9">
+        <v>7500</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9180</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="9">
+        <v>8949</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F5" s="9">
+        <v>11207</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7487</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9123</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7455</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8953</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="9">
+        <v>7487</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9123</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="9">
+        <v>7403</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8862</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="9">
+        <v>7159</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8446</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="9">
+        <v>7173</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="9">
+        <v>8454</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="9">
+        <v>7159</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F12" s="9">
+        <v>8446</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="9">
+        <v>7169</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="9">
+        <v>8452</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="9">
+        <v>7160</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="9">
+        <v>8442</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B15" s="9">
+        <v>7169</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8453</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16" s="9">
+        <v>7160</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F16" s="9">
+        <v>8442</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="9">
+        <v>7169</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="F17" s="9">
+        <v>8452</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEC8B2A-6E91-450C-9A5D-57EF511F68E4}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+      <c r="B1" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28">
+        <v>7</v>
+      </c>
+      <c r="C2" s="29">
+        <v>8136</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="24"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="29">
         <v>7915</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F7" s="12">
-        <v>9582</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B8" s="12">
-        <v>7756</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" s="12">
-        <v>9432</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7963</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="12">
-        <v>9650</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B10" s="12">
-        <v>8112</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="12">
-        <v>9824</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="12">
-        <v>8111</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="12">
-        <v>9861</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B12" s="12">
-        <v>8203</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" s="12">
-        <v>9987</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="12">
-        <v>8320</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="12">
-        <v>10176</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B14" s="12">
-        <v>7858</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="12">
-        <v>9524</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="12">
-        <v>7781</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="F15" s="12">
-        <v>9478</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="12">
-        <v>8055</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="12">
-        <v>9836</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="B17" s="12">
-        <v>8220</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="12">
-        <v>10012</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="12">
-        <v>8468</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="12">
-        <v>10421</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="12">
-        <v>8426</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="12">
-        <v>10405</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>163</v>
-      </c>
+      <c r="D3" s="27" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="29">
+        <v>7034</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="29">
+        <v>7017</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="29">
+        <v>7020</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="29">
+        <v>7020</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="29">
+        <v>7019</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="29">
+        <v>7019</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7015</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="29">
+        <v>7011</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="29">
+        <v>7007</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C13" s="29">
+        <v>7001</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="29">
+        <v>6993</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="29">
+        <v>6990</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C16" s="29">
+        <v>6986</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="29">
+        <v>6973</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="24"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251DE43D-7C55-4C9E-92BD-12E4314B8285}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="22" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
+      <c r="A1" s="23"/>
+      <c r="B1" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="31"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>-14</v>
+      </c>
+      <c r="C2" s="29">
+        <v>7184</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="27">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="29">
+        <v>7194</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="27">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="29">
+        <v>7194</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="27">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="29">
+        <v>7196</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="27">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="29">
+        <v>7197</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="27">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="29">
+        <v>7197</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C8" s="29">
+        <v>7196</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="27">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C9" s="29">
+        <v>7197</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="27">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="29">
+        <v>7196</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="29">
+        <v>7192</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="29">
+        <v>7187</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="29">
+        <v>7182</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="29">
+        <v>7178</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="27">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="29">
+        <v>7173</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="27">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="29">
+        <v>7170</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="27">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="29">
+        <v>7159</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="23"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E8C7FE9-F960-4057-8BF7-B92694392A2A}">
-  <dimension ref="A1:E17"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EB1403-EA60-422A-8A12-C13DBCBEE216}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="B1" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>-14</v>
+      </c>
+      <c r="C2" s="37">
+        <v>7111</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="36">
         <v>2</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="B3" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="37">
+        <v>7301</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
         <v>3</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="B4" s="39" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="37">
+        <v>7363</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="37">
+        <v>7453</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="36">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="C6" s="37">
+        <v>7557</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" s="37">
+        <v>7578</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A8" s="36">
+        <v>7</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C8" s="37">
+        <v>7634</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A9" s="36">
+        <v>8</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="C9" s="37">
+        <v>7651</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A10" s="36">
+        <v>9</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="37">
+        <v>7656</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A11" s="36">
+        <v>10</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="C11" s="37">
+        <v>7690</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A12" s="36">
         <v>11</v>
       </c>
-      <c r="B2" s="12">
-        <v>7736</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="B12" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="C12" s="37">
+        <v>7698</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="36">
         <v>12</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="B13" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="37">
+        <v>7725</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A14" s="36">
         <v>13</v>
       </c>
-      <c r="B3" s="12">
-        <v>7567</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B14" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="37">
+        <v>7717</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A15" s="36">
         <v>14</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="B15" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="C15" s="37">
+        <v>7685</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A16" s="36">
         <v>15</v>
       </c>
-      <c r="B4" s="12">
-        <v>7403</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B16" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="37">
+        <v>7707</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A17" s="36">
         <v>16</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="12">
-        <v>7324</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12">
-        <v>7320</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12">
-        <v>7809</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="12">
-        <v>7631</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7465</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="12">
-        <v>7410</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="12">
-        <v>7413</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="12">
-        <v>7804</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="12">
-        <v>7607</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="12">
-        <v>7561</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="12">
-        <v>7466</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="12">
-        <v>7453</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9FC318-4E04-4AAA-906F-8E70961BB30E}">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="12">
-        <v>7500</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F2" s="12">
-        <v>9180</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="12">
-        <v>8488</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F3" s="12">
-        <v>10322</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="12">
-        <v>7500</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F4" s="12">
-        <v>9180</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="12">
-        <v>8949</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="12">
-        <v>11207</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="12">
-        <v>7487</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="12">
-        <v>9123</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="12">
-        <v>7455</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="12">
-        <v>8953</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="12">
-        <v>7487</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="12">
-        <v>9123</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="12">
-        <v>7403</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="F9" s="12">
-        <v>8862</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="12">
-        <v>7159</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F10" s="12">
-        <v>8446</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B11" s="12">
-        <v>7173</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="12">
-        <v>8454</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B12" s="12">
-        <v>7159</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="12">
-        <v>8446</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="B13" s="12">
-        <v>7169</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="12">
-        <v>8452</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B14" s="12">
-        <v>7160</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F14" s="12">
-        <v>8442</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="B15" s="12">
-        <v>7169</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F15" s="12">
-        <v>8453</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="B16" s="12">
-        <v>7160</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="F16" s="12">
-        <v>8442</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="B17" s="12">
-        <v>7169</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="12">
-        <v>8452</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>257</v>
+      <c r="B17" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="37">
+        <v>7583</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>

--- a/Outcomes.xlsx
+++ b/Outcomes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\Actual\Simulacion\Proyecto\ML_ParkinsonDisease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74DE177B-8988-43FB-9801-DF89F38F16E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B83AFD2-8DD4-4A78-9A8F-818FA2C51D81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLR" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,19 @@
     <sheet name="Sel_PW" sheetId="6" r:id="rId6"/>
     <sheet name="Sel_SVR" sheetId="7" r:id="rId7"/>
     <sheet name="Sel_MLPR" sheetId="8" r:id="rId8"/>
+    <sheet name="PCA" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mhtPjinVRHNAp88apkYp7E0C7qzdg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataSignature="AMtx7mhtPjinVRHNAp88apkYp7E0C7qzdg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="371">
   <si>
     <t>params</t>
   </si>
@@ -1079,6 +1080,72 @@
   </si>
   <si>
     <t>0.556207</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>std_RMSE</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>n_components</t>
+  </si>
+  <si>
+    <t>0.4057</t>
+  </si>
+  <si>
+    <t>0.1257</t>
+  </si>
+  <si>
+    <t>0.4419</t>
+  </si>
+  <si>
+    <t>0.1107</t>
+  </si>
+  <si>
+    <t>0.5581</t>
+  </si>
+  <si>
+    <t>0.4273</t>
+  </si>
+  <si>
+    <t>0.0882</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.561</t>
+  </si>
+  <si>
+    <t>0.0884</t>
+  </si>
+  <si>
+    <t>0.5736</t>
+  </si>
+  <si>
+    <t>0.4227</t>
+  </si>
+  <si>
+    <t>0.1322</t>
+  </si>
+  <si>
+    <t>0.4417</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>MLPR + PCA</t>
+  </si>
+  <si>
+    <t>Parzen Window + PCA</t>
+  </si>
+  <si>
+    <t>SVR + PCA</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1266,6 +1333,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7860,7 +7930,7 @@
     <col min="3" max="4" width="11.25" style="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="23"/>
       <c r="B1" s="26" t="s">
         <v>258</v>
@@ -8342,7 +8412,7 @@
       </c>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -8425,7 +8495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41EB1403-EA60-422A-8A12-C13DBCBEE216}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8531,7 +8601,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
         <v>7</v>
       </c>
@@ -8674,4 +8744,230 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2B2A46-8FA6-4A29-B538-8F741A173052}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="27">
+        <v>4</v>
+      </c>
+      <c r="C3" s="29">
+        <v>7004</v>
+      </c>
+      <c r="D3" s="29">
+        <v>1245</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="29">
+        <v>8431</v>
+      </c>
+      <c r="H3" s="29">
+        <v>1465</v>
+      </c>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="27">
+        <v>8</v>
+      </c>
+      <c r="C4" s="29">
+        <v>6973</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="G4" s="29">
+        <v>8243</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="I4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="27">
+        <v>4</v>
+      </c>
+      <c r="C5" s="29">
+        <v>7168</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1093</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="29">
+        <v>8333</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1280</v>
+      </c>
+      <c r="I5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
+      <c r="B6" s="27">
+        <v>8</v>
+      </c>
+      <c r="C6" s="29">
+        <v>7212</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1076</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="29">
+        <v>8610</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1039</v>
+      </c>
+      <c r="I6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="27">
+        <v>4</v>
+      </c>
+      <c r="C7" s="29">
+        <v>6972</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="29">
+        <v>8244</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="27">
+        <v>8</v>
+      </c>
+      <c r="C8" s="29">
+        <v>7174</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1097</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" s="29">
+        <v>8336</v>
+      </c>
+      <c r="H8" s="29">
+        <v>1285</v>
+      </c>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>